--- a/template/permits_template.xlsx
+++ b/template/permits_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damajor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5575C5E-A8A6-41AF-939A-FC1FA36D9C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC02B9-79E8-4525-ACAA-89A1FBC322D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
   <si>
     <t># [LLINE]</t>
   </si>
@@ -1155,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D161" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG632" sqref="AG632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,14 +1197,12 @@
     <col min="33" max="33" width="36.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28" style="16" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.33203125" style="16" customWidth="1"/>
-    <col min="40" max="40" width="18.88671875" style="16" customWidth="1"/>
+    <col min="36" max="36" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" style="16" customWidth="1"/>
+    <col min="38" max="38" width="18.88671875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1310,417 +1308,411 @@
       <c r="AI1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>36</v>
+      <c r="AJ1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-    </row>
-    <row r="17" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-    </row>
-    <row r="18" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-    </row>
-    <row r="19" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-    </row>
-    <row r="20" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-    </row>
-    <row r="21" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-    </row>
-    <row r="22" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-    </row>
-    <row r="23" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-    </row>
-    <row r="24" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-    </row>
-    <row r="25" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-    </row>
-    <row r="26" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-    </row>
-    <row r="27" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-    </row>
-    <row r="28" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-    </row>
-    <row r="29" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-    </row>
-    <row r="30" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-    </row>
-    <row r="31" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-    </row>
-    <row r="32" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-    </row>
-    <row r="33" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-    </row>
-    <row r="34" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-    </row>
-    <row r="35" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-    </row>
-    <row r="36" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-    </row>
-    <row r="37" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-    </row>
-    <row r="38" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-    </row>
-    <row r="39" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-    </row>
-    <row r="40" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-    </row>
-    <row r="41" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-    </row>
-    <row r="42" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-    </row>
-    <row r="43" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-    </row>
-    <row r="44" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-    </row>
-    <row r="45" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-    </row>
-    <row r="46" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-    </row>
-    <row r="47" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="17"/>
-    </row>
-    <row r="48" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL48" s="17"/>
-      <c r="AM48" s="17"/>
-    </row>
-    <row r="49" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-    </row>
-    <row r="50" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-    </row>
-    <row r="51" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-    </row>
-    <row r="52" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-    </row>
-    <row r="53" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-    </row>
-    <row r="54" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-    </row>
-    <row r="55" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
-    </row>
-    <row r="56" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL56" s="17"/>
-      <c r="AM56" s="17"/>
-    </row>
-    <row r="57" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL57" s="17"/>
-      <c r="AM57" s="17"/>
-    </row>
-    <row r="58" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-    </row>
-    <row r="59" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL59" s="17"/>
-      <c r="AM59" s="17"/>
-    </row>
-    <row r="60" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL60" s="17"/>
-      <c r="AM60" s="17"/>
-    </row>
-    <row r="61" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL61" s="17"/>
-      <c r="AM61" s="17"/>
-    </row>
-    <row r="62" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL62" s="17"/>
-      <c r="AM62" s="17"/>
-    </row>
-    <row r="63" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL63" s="17"/>
-      <c r="AM63" s="17"/>
-    </row>
-    <row r="64" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL64" s="17"/>
-      <c r="AM64" s="17"/>
-    </row>
-    <row r="65" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL65" s="17"/>
-      <c r="AM65" s="17"/>
-    </row>
-    <row r="66" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL66" s="17"/>
-      <c r="AM66" s="17"/>
-    </row>
-    <row r="67" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="17"/>
-    </row>
-    <row r="68" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL68" s="17"/>
-      <c r="AM68" s="17"/>
-    </row>
-    <row r="69" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL69" s="17"/>
-      <c r="AM69" s="17"/>
-    </row>
-    <row r="70" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL70" s="17"/>
-      <c r="AM70" s="17"/>
-    </row>
-    <row r="71" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL71" s="17"/>
-      <c r="AM71" s="17"/>
-    </row>
-    <row r="72" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL72" s="17"/>
-      <c r="AM72" s="17"/>
-    </row>
-    <row r="73" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL73" s="17"/>
-      <c r="AM73" s="17"/>
-    </row>
-    <row r="74" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL74" s="17"/>
-      <c r="AM74" s="17"/>
-    </row>
-    <row r="75" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL75" s="17"/>
-      <c r="AM75" s="17"/>
-    </row>
-    <row r="76" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL76" s="17"/>
-      <c r="AM76" s="17"/>
-    </row>
-    <row r="77" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL77" s="17"/>
-      <c r="AM77" s="17"/>
-    </row>
-    <row r="78" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="17"/>
-    </row>
-    <row r="79" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL79" s="17"/>
-      <c r="AM79" s="17"/>
-    </row>
-    <row r="80" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL80" s="17"/>
-      <c r="AM80" s="17"/>
-    </row>
-    <row r="81" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL81" s="17"/>
-      <c r="AM81" s="17"/>
-    </row>
-    <row r="82" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL82" s="17"/>
-      <c r="AM82" s="17"/>
-    </row>
-    <row r="83" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL83" s="17"/>
-      <c r="AM83" s="17"/>
-    </row>
-    <row r="84" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL84" s="17"/>
-      <c r="AM84" s="17"/>
-    </row>
-    <row r="85" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL85" s="17"/>
-      <c r="AM85" s="17"/>
-    </row>
-    <row r="86" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL86" s="17"/>
-      <c r="AM86" s="17"/>
-    </row>
-    <row r="87" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL87" s="17"/>
-      <c r="AM87" s="17"/>
-    </row>
-    <row r="88" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL88" s="17"/>
-      <c r="AM88" s="17"/>
-    </row>
-    <row r="89" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL89" s="17"/>
-      <c r="AM89" s="17"/>
-    </row>
-    <row r="90" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL90" s="17"/>
-      <c r="AM90" s="17"/>
-    </row>
-    <row r="91" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL91" s="17"/>
-      <c r="AM91" s="17"/>
-    </row>
-    <row r="92" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL92" s="17"/>
-      <c r="AM92" s="17"/>
-    </row>
-    <row r="93" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL93" s="17"/>
-      <c r="AM93" s="17"/>
-    </row>
-    <row r="94" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL94" s="17"/>
-      <c r="AM94" s="17"/>
-    </row>
-    <row r="95" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL95" s="17"/>
-      <c r="AM95" s="17"/>
-    </row>
-    <row r="96" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL96" s="17"/>
-      <c r="AM96" s="17"/>
-    </row>
-    <row r="97" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL97" s="17"/>
-      <c r="AM97" s="17"/>
-    </row>
-    <row r="98" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL98" s="17"/>
-      <c r="AM98" s="17"/>
-    </row>
-    <row r="99" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL99" s="17"/>
-      <c r="AM99" s="17"/>
-    </row>
-    <row r="100" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL100" s="17"/>
-      <c r="AM100" s="17"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+    </row>
+    <row r="17" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+    </row>
+    <row r="18" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+    </row>
+    <row r="19" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+    </row>
+    <row r="20" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+    </row>
+    <row r="21" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+    </row>
+    <row r="22" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+    </row>
+    <row r="23" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+    </row>
+    <row r="24" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+    </row>
+    <row r="25" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+    </row>
+    <row r="26" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+    </row>
+    <row r="27" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+    </row>
+    <row r="28" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+    </row>
+    <row r="29" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+    </row>
+    <row r="30" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+    </row>
+    <row r="31" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+    </row>
+    <row r="32" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+    </row>
+    <row r="33" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+    </row>
+    <row r="34" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+    </row>
+    <row r="35" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+    </row>
+    <row r="36" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+    </row>
+    <row r="37" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+    </row>
+    <row r="38" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+    </row>
+    <row r="39" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+    </row>
+    <row r="40" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+    </row>
+    <row r="41" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+    </row>
+    <row r="42" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+    </row>
+    <row r="43" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+    </row>
+    <row r="44" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+    </row>
+    <row r="45" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+    </row>
+    <row r="46" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+    </row>
+    <row r="47" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+    </row>
+    <row r="48" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+    </row>
+    <row r="49" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+    </row>
+    <row r="50" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+    </row>
+    <row r="51" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+    </row>
+    <row r="52" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+    </row>
+    <row r="53" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+    </row>
+    <row r="54" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+    </row>
+    <row r="55" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+    </row>
+    <row r="56" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+    </row>
+    <row r="57" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+    </row>
+    <row r="58" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+    </row>
+    <row r="59" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="17"/>
+      <c r="AK59" s="17"/>
+    </row>
+    <row r="60" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+    </row>
+    <row r="61" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+    </row>
+    <row r="62" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
+    </row>
+    <row r="63" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+    </row>
+    <row r="64" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+    </row>
+    <row r="65" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="17"/>
+    </row>
+    <row r="66" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+    </row>
+    <row r="67" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+    </row>
+    <row r="68" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+    </row>
+    <row r="69" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+    </row>
+    <row r="70" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+    </row>
+    <row r="71" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+    </row>
+    <row r="72" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+    </row>
+    <row r="73" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+    </row>
+    <row r="74" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+    </row>
+    <row r="75" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+    </row>
+    <row r="76" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="17"/>
+    </row>
+    <row r="77" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="17"/>
+    </row>
+    <row r="78" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="17"/>
+    </row>
+    <row r="79" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+    </row>
+    <row r="80" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ80" s="17"/>
+      <c r="AK80" s="17"/>
+    </row>
+    <row r="81" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+    </row>
+    <row r="82" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ82" s="17"/>
+      <c r="AK82" s="17"/>
+    </row>
+    <row r="83" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ83" s="17"/>
+      <c r="AK83" s="17"/>
+    </row>
+    <row r="84" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ84" s="17"/>
+      <c r="AK84" s="17"/>
+    </row>
+    <row r="85" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ85" s="17"/>
+      <c r="AK85" s="17"/>
+    </row>
+    <row r="86" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ86" s="17"/>
+      <c r="AK86" s="17"/>
+    </row>
+    <row r="87" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ87" s="17"/>
+      <c r="AK87" s="17"/>
+    </row>
+    <row r="88" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+    </row>
+    <row r="89" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ89" s="17"/>
+      <c r="AK89" s="17"/>
+    </row>
+    <row r="90" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="17"/>
+    </row>
+    <row r="91" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="17"/>
+    </row>
+    <row r="92" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+    </row>
+    <row r="93" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ93" s="17"/>
+      <c r="AK93" s="17"/>
+    </row>
+    <row r="94" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+    </row>
+    <row r="95" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ95" s="17"/>
+      <c r="AK95" s="17"/>
+    </row>
+    <row r="96" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ96" s="17"/>
+      <c r="AK96" s="17"/>
+    </row>
+    <row r="97" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+    </row>
+    <row r="98" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+    </row>
+    <row r="99" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="17"/>
+    </row>
+    <row r="100" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ100" s="17"/>
+      <c r="AK100" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE8290-BEBC-4760-ABEF-A71140CD6C10}">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AN19" sqref="AN19"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1771,14 +1763,12 @@
     <col min="33" max="33" width="36.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28" style="16" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="29" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.33203125" style="16" customWidth="1"/>
-    <col min="40" max="40" width="18.88671875" style="16" customWidth="1"/>
+    <col min="36" max="36" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.33203125" style="16" customWidth="1"/>
+    <col min="38" max="38" width="18.88671875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1884,417 +1874,411 @@
       <c r="AI1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>36</v>
+      <c r="AJ1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL2" s="17"/>
-      <c r="AM2" s="17"/>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL4" s="17"/>
-      <c r="AM4" s="17"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL5" s="17"/>
-      <c r="AM5" s="17"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-    </row>
-    <row r="17" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-    </row>
-    <row r="18" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-    </row>
-    <row r="19" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-    </row>
-    <row r="20" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-    </row>
-    <row r="21" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-    </row>
-    <row r="22" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-    </row>
-    <row r="23" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-    </row>
-    <row r="24" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-    </row>
-    <row r="25" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-    </row>
-    <row r="26" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-    </row>
-    <row r="27" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-    </row>
-    <row r="28" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-    </row>
-    <row r="29" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-    </row>
-    <row r="30" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL30" s="17"/>
-      <c r="AM30" s="17"/>
-    </row>
-    <row r="31" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL31" s="17"/>
-      <c r="AM31" s="17"/>
-    </row>
-    <row r="32" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL32" s="17"/>
-      <c r="AM32" s="17"/>
-    </row>
-    <row r="33" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL33" s="17"/>
-      <c r="AM33" s="17"/>
-    </row>
-    <row r="34" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL34" s="17"/>
-      <c r="AM34" s="17"/>
-    </row>
-    <row r="35" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL35" s="17"/>
-      <c r="AM35" s="17"/>
-    </row>
-    <row r="36" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL36" s="17"/>
-      <c r="AM36" s="17"/>
-    </row>
-    <row r="37" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL37" s="17"/>
-      <c r="AM37" s="17"/>
-    </row>
-    <row r="38" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL38" s="17"/>
-      <c r="AM38" s="17"/>
-    </row>
-    <row r="39" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-    </row>
-    <row r="40" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-    </row>
-    <row r="41" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-    </row>
-    <row r="42" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-    </row>
-    <row r="43" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-    </row>
-    <row r="44" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-    </row>
-    <row r="45" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-    </row>
-    <row r="46" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-    </row>
-    <row r="47" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="17"/>
-    </row>
-    <row r="48" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL48" s="17"/>
-      <c r="AM48" s="17"/>
-    </row>
-    <row r="49" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-    </row>
-    <row r="50" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-    </row>
-    <row r="51" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-    </row>
-    <row r="52" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-    </row>
-    <row r="53" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL53" s="17"/>
-      <c r="AM53" s="17"/>
-    </row>
-    <row r="54" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-    </row>
-    <row r="55" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL55" s="17"/>
-      <c r="AM55" s="17"/>
-    </row>
-    <row r="56" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL56" s="17"/>
-      <c r="AM56" s="17"/>
-    </row>
-    <row r="57" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL57" s="17"/>
-      <c r="AM57" s="17"/>
-    </row>
-    <row r="58" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL58" s="17"/>
-      <c r="AM58" s="17"/>
-    </row>
-    <row r="59" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL59" s="17"/>
-      <c r="AM59" s="17"/>
-    </row>
-    <row r="60" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL60" s="17"/>
-      <c r="AM60" s="17"/>
-    </row>
-    <row r="61" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL61" s="17"/>
-      <c r="AM61" s="17"/>
-    </row>
-    <row r="62" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL62" s="17"/>
-      <c r="AM62" s="17"/>
-    </row>
-    <row r="63" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL63" s="17"/>
-      <c r="AM63" s="17"/>
-    </row>
-    <row r="64" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL64" s="17"/>
-      <c r="AM64" s="17"/>
-    </row>
-    <row r="65" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL65" s="17"/>
-      <c r="AM65" s="17"/>
-    </row>
-    <row r="66" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL66" s="17"/>
-      <c r="AM66" s="17"/>
-    </row>
-    <row r="67" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL67" s="17"/>
-      <c r="AM67" s="17"/>
-    </row>
-    <row r="68" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL68" s="17"/>
-      <c r="AM68" s="17"/>
-    </row>
-    <row r="69" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL69" s="17"/>
-      <c r="AM69" s="17"/>
-    </row>
-    <row r="70" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL70" s="17"/>
-      <c r="AM70" s="17"/>
-    </row>
-    <row r="71" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL71" s="17"/>
-      <c r="AM71" s="17"/>
-    </row>
-    <row r="72" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL72" s="17"/>
-      <c r="AM72" s="17"/>
-    </row>
-    <row r="73" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL73" s="17"/>
-      <c r="AM73" s="17"/>
-    </row>
-    <row r="74" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL74" s="17"/>
-      <c r="AM74" s="17"/>
-    </row>
-    <row r="75" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL75" s="17"/>
-      <c r="AM75" s="17"/>
-    </row>
-    <row r="76" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL76" s="17"/>
-      <c r="AM76" s="17"/>
-    </row>
-    <row r="77" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL77" s="17"/>
-      <c r="AM77" s="17"/>
-    </row>
-    <row r="78" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="17"/>
-    </row>
-    <row r="79" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL79" s="17"/>
-      <c r="AM79" s="17"/>
-    </row>
-    <row r="80" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL80" s="17"/>
-      <c r="AM80" s="17"/>
-    </row>
-    <row r="81" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL81" s="17"/>
-      <c r="AM81" s="17"/>
-    </row>
-    <row r="82" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL82" s="17"/>
-      <c r="AM82" s="17"/>
-    </row>
-    <row r="83" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL83" s="17"/>
-      <c r="AM83" s="17"/>
-    </row>
-    <row r="84" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL84" s="17"/>
-      <c r="AM84" s="17"/>
-    </row>
-    <row r="85" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL85" s="17"/>
-      <c r="AM85" s="17"/>
-    </row>
-    <row r="86" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL86" s="17"/>
-      <c r="AM86" s="17"/>
-    </row>
-    <row r="87" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL87" s="17"/>
-      <c r="AM87" s="17"/>
-    </row>
-    <row r="88" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL88" s="17"/>
-      <c r="AM88" s="17"/>
-    </row>
-    <row r="89" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL89" s="17"/>
-      <c r="AM89" s="17"/>
-    </row>
-    <row r="90" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL90" s="17"/>
-      <c r="AM90" s="17"/>
-    </row>
-    <row r="91" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL91" s="17"/>
-      <c r="AM91" s="17"/>
-    </row>
-    <row r="92" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL92" s="17"/>
-      <c r="AM92" s="17"/>
-    </row>
-    <row r="93" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL93" s="17"/>
-      <c r="AM93" s="17"/>
-    </row>
-    <row r="94" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL94" s="17"/>
-      <c r="AM94" s="17"/>
-    </row>
-    <row r="95" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL95" s="17"/>
-      <c r="AM95" s="17"/>
-    </row>
-    <row r="96" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL96" s="17"/>
-      <c r="AM96" s="17"/>
-    </row>
-    <row r="97" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL97" s="17"/>
-      <c r="AM97" s="17"/>
-    </row>
-    <row r="98" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL98" s="17"/>
-      <c r="AM98" s="17"/>
-    </row>
-    <row r="99" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL99" s="17"/>
-      <c r="AM99" s="17"/>
-    </row>
-    <row r="100" spans="38:39" x14ac:dyDescent="0.3">
-      <c r="AL100" s="17"/>
-      <c r="AM100" s="17"/>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+    </row>
+    <row r="17" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+    </row>
+    <row r="18" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+    </row>
+    <row r="19" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+    </row>
+    <row r="20" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+    </row>
+    <row r="21" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+    </row>
+    <row r="22" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+    </row>
+    <row r="23" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+    </row>
+    <row r="24" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+    </row>
+    <row r="25" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+    </row>
+    <row r="26" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+    </row>
+    <row r="27" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+    </row>
+    <row r="28" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+    </row>
+    <row r="29" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+    </row>
+    <row r="30" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+    </row>
+    <row r="31" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+    </row>
+    <row r="32" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+    </row>
+    <row r="33" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+    </row>
+    <row r="34" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+    </row>
+    <row r="35" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+    </row>
+    <row r="36" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ36" s="17"/>
+      <c r="AK36" s="17"/>
+    </row>
+    <row r="37" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ37" s="17"/>
+      <c r="AK37" s="17"/>
+    </row>
+    <row r="38" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ38" s="17"/>
+      <c r="AK38" s="17"/>
+    </row>
+    <row r="39" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+    </row>
+    <row r="40" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ40" s="17"/>
+      <c r="AK40" s="17"/>
+    </row>
+    <row r="41" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ41" s="17"/>
+      <c r="AK41" s="17"/>
+    </row>
+    <row r="42" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ42" s="17"/>
+      <c r="AK42" s="17"/>
+    </row>
+    <row r="43" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ43" s="17"/>
+      <c r="AK43" s="17"/>
+    </row>
+    <row r="44" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ44" s="17"/>
+      <c r="AK44" s="17"/>
+    </row>
+    <row r="45" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ45" s="17"/>
+      <c r="AK45" s="17"/>
+    </row>
+    <row r="46" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ46" s="17"/>
+      <c r="AK46" s="17"/>
+    </row>
+    <row r="47" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+    </row>
+    <row r="48" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ48" s="17"/>
+      <c r="AK48" s="17"/>
+    </row>
+    <row r="49" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ49" s="17"/>
+      <c r="AK49" s="17"/>
+    </row>
+    <row r="50" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ50" s="17"/>
+      <c r="AK50" s="17"/>
+    </row>
+    <row r="51" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+    </row>
+    <row r="52" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ52" s="17"/>
+      <c r="AK52" s="17"/>
+    </row>
+    <row r="53" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ53" s="17"/>
+      <c r="AK53" s="17"/>
+    </row>
+    <row r="54" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ54" s="17"/>
+      <c r="AK54" s="17"/>
+    </row>
+    <row r="55" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ55" s="17"/>
+      <c r="AK55" s="17"/>
+    </row>
+    <row r="56" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+    </row>
+    <row r="57" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+    </row>
+    <row r="58" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ58" s="17"/>
+      <c r="AK58" s="17"/>
+    </row>
+    <row r="59" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ59" s="17"/>
+      <c r="AK59" s="17"/>
+    </row>
+    <row r="60" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ60" s="17"/>
+      <c r="AK60" s="17"/>
+    </row>
+    <row r="61" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ61" s="17"/>
+      <c r="AK61" s="17"/>
+    </row>
+    <row r="62" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ62" s="17"/>
+      <c r="AK62" s="17"/>
+    </row>
+    <row r="63" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ63" s="17"/>
+      <c r="AK63" s="17"/>
+    </row>
+    <row r="64" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ64" s="17"/>
+      <c r="AK64" s="17"/>
+    </row>
+    <row r="65" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ65" s="17"/>
+      <c r="AK65" s="17"/>
+    </row>
+    <row r="66" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ66" s="17"/>
+      <c r="AK66" s="17"/>
+    </row>
+    <row r="67" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ67" s="17"/>
+      <c r="AK67" s="17"/>
+    </row>
+    <row r="68" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ68" s="17"/>
+      <c r="AK68" s="17"/>
+    </row>
+    <row r="69" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+    </row>
+    <row r="70" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ70" s="17"/>
+      <c r="AK70" s="17"/>
+    </row>
+    <row r="71" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ71" s="17"/>
+      <c r="AK71" s="17"/>
+    </row>
+    <row r="72" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ72" s="17"/>
+      <c r="AK72" s="17"/>
+    </row>
+    <row r="73" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ73" s="17"/>
+      <c r="AK73" s="17"/>
+    </row>
+    <row r="74" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ74" s="17"/>
+      <c r="AK74" s="17"/>
+    </row>
+    <row r="75" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ75" s="17"/>
+      <c r="AK75" s="17"/>
+    </row>
+    <row r="76" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ76" s="17"/>
+      <c r="AK76" s="17"/>
+    </row>
+    <row r="77" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ77" s="17"/>
+      <c r="AK77" s="17"/>
+    </row>
+    <row r="78" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="17"/>
+    </row>
+    <row r="79" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ79" s="17"/>
+      <c r="AK79" s="17"/>
+    </row>
+    <row r="80" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ80" s="17"/>
+      <c r="AK80" s="17"/>
+    </row>
+    <row r="81" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ81" s="17"/>
+      <c r="AK81" s="17"/>
+    </row>
+    <row r="82" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ82" s="17"/>
+      <c r="AK82" s="17"/>
+    </row>
+    <row r="83" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ83" s="17"/>
+      <c r="AK83" s="17"/>
+    </row>
+    <row r="84" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ84" s="17"/>
+      <c r="AK84" s="17"/>
+    </row>
+    <row r="85" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ85" s="17"/>
+      <c r="AK85" s="17"/>
+    </row>
+    <row r="86" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ86" s="17"/>
+      <c r="AK86" s="17"/>
+    </row>
+    <row r="87" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ87" s="17"/>
+      <c r="AK87" s="17"/>
+    </row>
+    <row r="88" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ88" s="17"/>
+      <c r="AK88" s="17"/>
+    </row>
+    <row r="89" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ89" s="17"/>
+      <c r="AK89" s="17"/>
+    </row>
+    <row r="90" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ90" s="17"/>
+      <c r="AK90" s="17"/>
+    </row>
+    <row r="91" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ91" s="17"/>
+      <c r="AK91" s="17"/>
+    </row>
+    <row r="92" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ92" s="17"/>
+      <c r="AK92" s="17"/>
+    </row>
+    <row r="93" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ93" s="17"/>
+      <c r="AK93" s="17"/>
+    </row>
+    <row r="94" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ94" s="17"/>
+      <c r="AK94" s="17"/>
+    </row>
+    <row r="95" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ95" s="17"/>
+      <c r="AK95" s="17"/>
+    </row>
+    <row r="96" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ96" s="17"/>
+      <c r="AK96" s="17"/>
+    </row>
+    <row r="97" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ97" s="17"/>
+      <c r="AK97" s="17"/>
+    </row>
+    <row r="98" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ98" s="17"/>
+      <c r="AK98" s="17"/>
+    </row>
+    <row r="99" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ99" s="17"/>
+      <c r="AK99" s="17"/>
+    </row>
+    <row r="100" spans="36:37" x14ac:dyDescent="0.3">
+      <c r="AJ100" s="17"/>
+      <c r="AK100" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2302,26 +2286,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B10A1146621544CA10AFFB6B345C290" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e9c3904391dfdb572e7cb9fb22afd49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c" xmlns:ns3="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9197d42b690c6e28e7629505631f20d" ns2:_="" ns3:_="">
     <xsd:import namespace="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
@@ -2556,10 +2520,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A916EAB6-040B-42FD-BC35-B17D273B5C97}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADA0474B-9F98-46F2-87E6-5AFDF174CFEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
+    <ds:schemaRef ds:uri="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2576,20 +2571,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADA0474B-9F98-46F2-87E6-5AFDF174CFEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A916EAB6-040B-42FD-BC35-B17D273B5C97}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
-    <ds:schemaRef ds:uri="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/template/permits_template.xlsx
+++ b/template/permits_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damajor\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BC02B9-79E8-4525-ACAA-89A1FBC322D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A882D8-0FA0-4ED7-B312-6A3BAF779753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="83">
   <si>
     <t># [LLINE]</t>
   </si>
@@ -143,12 +143,6 @@
     <t>FLAG, EMPTY: Note1</t>
   </si>
   <si>
-    <t>FLAGS, TOTAL - LENGTH/VALUE</t>
-  </si>
-  <si>
-    <t>FLAGS, TOTAL - EMPTY/INVALID</t>
-  </si>
-  <si>
     <t>Property Address</t>
   </si>
   <si>
@@ -282,12 +276,6 @@
   </si>
   <si>
     <t>"Yes" if the work description is missing. Empty otherwise.</t>
-  </si>
-  <si>
-    <t>Total number of flags for values that are over the Smartfile limit.</t>
-  </si>
-  <si>
-    <t>Total number of flags for values that are missing (or invalid, in the case of PINs).</t>
   </si>
   <si>
     <t>Likely Assessable?</t>
@@ -771,381 +759,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDD913F-9030-4CD4-850D-F7EAF1DE7A4C}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="137.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="137.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="B9" s="12"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="B30" s="13"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1162,47 +1136,47 @@
       <selection pane="bottomLeft" activeCell="AG632" sqref="AG632"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="122.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="122.42578125" style="15" customWidth="1"/>
     <col min="18" max="18" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="109.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="109.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28" style="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.33203125" style="16" customWidth="1"/>
-    <col min="38" max="38" width="18.88671875" style="16" customWidth="1"/>
+    <col min="35" max="35" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.28515625" style="16" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1309,408 +1283,408 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
     </row>
-    <row r="17" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
     </row>
-    <row r="18" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
     </row>
-    <row r="19" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
     </row>
-    <row r="20" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
     </row>
-    <row r="21" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
     </row>
-    <row r="22" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
     </row>
-    <row r="23" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
     </row>
-    <row r="25" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
     </row>
-    <row r="26" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
     </row>
-    <row r="27" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
     </row>
-    <row r="28" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
     </row>
-    <row r="29" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
     </row>
-    <row r="30" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
     </row>
-    <row r="31" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
     </row>
-    <row r="32" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
     </row>
-    <row r="33" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
     </row>
-    <row r="34" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
     </row>
-    <row r="35" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
     </row>
-    <row r="36" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
     </row>
-    <row r="37" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
     </row>
-    <row r="39" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
     </row>
-    <row r="40" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
     </row>
-    <row r="41" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
     </row>
-    <row r="42" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
     </row>
-    <row r="43" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
     </row>
-    <row r="44" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
     </row>
-    <row r="45" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
     </row>
-    <row r="46" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
     </row>
-    <row r="47" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
     </row>
-    <row r="48" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
     </row>
-    <row r="49" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
     </row>
-    <row r="50" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
     </row>
-    <row r="51" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
     </row>
-    <row r="52" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
     </row>
-    <row r="53" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
     </row>
-    <row r="54" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
     </row>
-    <row r="55" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
     </row>
-    <row r="56" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
     </row>
-    <row r="57" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
     </row>
-    <row r="58" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
     </row>
-    <row r="59" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
     </row>
-    <row r="60" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
     </row>
-    <row r="61" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
     </row>
-    <row r="62" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
     </row>
-    <row r="63" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
     </row>
-    <row r="64" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
     </row>
-    <row r="65" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
     </row>
-    <row r="66" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
     </row>
-    <row r="67" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
     </row>
-    <row r="68" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
     </row>
-    <row r="69" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
     </row>
-    <row r="70" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ70" s="17"/>
       <c r="AK70" s="17"/>
     </row>
-    <row r="71" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ71" s="17"/>
       <c r="AK71" s="17"/>
     </row>
-    <row r="72" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ72" s="17"/>
       <c r="AK72" s="17"/>
     </row>
-    <row r="73" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ73" s="17"/>
       <c r="AK73" s="17"/>
     </row>
-    <row r="74" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ74" s="17"/>
       <c r="AK74" s="17"/>
     </row>
-    <row r="75" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ75" s="17"/>
       <c r="AK75" s="17"/>
     </row>
-    <row r="76" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ76" s="17"/>
       <c r="AK76" s="17"/>
     </row>
-    <row r="77" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ77" s="17"/>
       <c r="AK77" s="17"/>
     </row>
-    <row r="78" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ78" s="17"/>
       <c r="AK78" s="17"/>
     </row>
-    <row r="79" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ79" s="17"/>
       <c r="AK79" s="17"/>
     </row>
-    <row r="80" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ80" s="17"/>
       <c r="AK80" s="17"/>
     </row>
-    <row r="81" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ81" s="17"/>
       <c r="AK81" s="17"/>
     </row>
-    <row r="82" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ82" s="17"/>
       <c r="AK82" s="17"/>
     </row>
-    <row r="83" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ83" s="17"/>
       <c r="AK83" s="17"/>
     </row>
-    <row r="84" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ84" s="17"/>
       <c r="AK84" s="17"/>
     </row>
-    <row r="85" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ85" s="17"/>
       <c r="AK85" s="17"/>
     </row>
-    <row r="86" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ86" s="17"/>
       <c r="AK86" s="17"/>
     </row>
-    <row r="87" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ87" s="17"/>
       <c r="AK87" s="17"/>
     </row>
-    <row r="88" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ88" s="17"/>
       <c r="AK88" s="17"/>
     </row>
-    <row r="89" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ89" s="17"/>
       <c r="AK89" s="17"/>
     </row>
-    <row r="90" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ90" s="17"/>
       <c r="AK90" s="17"/>
     </row>
-    <row r="91" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ91" s="17"/>
       <c r="AK91" s="17"/>
     </row>
-    <row r="92" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ92" s="17"/>
       <c r="AK92" s="17"/>
     </row>
-    <row r="93" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ93" s="17"/>
       <c r="AK93" s="17"/>
     </row>
-    <row r="94" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ94" s="17"/>
       <c r="AK94" s="17"/>
     </row>
-    <row r="95" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ95" s="17"/>
       <c r="AK95" s="17"/>
     </row>
-    <row r="96" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ96" s="17"/>
       <c r="AK96" s="17"/>
     </row>
-    <row r="97" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ97" s="17"/>
       <c r="AK97" s="17"/>
     </row>
-    <row r="98" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ98" s="17"/>
       <c r="AK98" s="17"/>
     </row>
-    <row r="99" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ99" s="17"/>
       <c r="AK99" s="17"/>
     </row>
-    <row r="100" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ100" s="17"/>
       <c r="AK100" s="17"/>
     </row>
@@ -1724,51 +1698,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADE8290-BEBC-4760-ABEF-A71140CD6C10}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+    <sheetView topLeftCell="AH1" workbookViewId="0">
       <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="122.44140625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="122.42578125" style="15" customWidth="1"/>
     <col min="18" max="18" width="19" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="109.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="37.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="109.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17" style="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.42578125" style="16" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28" style="16" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.33203125" style="16" customWidth="1"/>
-    <col min="38" max="38" width="18.88671875" style="16" customWidth="1"/>
+    <col min="35" max="35" width="19.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.28515625" style="16" customWidth="1"/>
+    <col min="38" max="38" width="18.85546875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1875,408 +1849,408 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ2" s="17"/>
       <c r="AK2" s="17"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ8" s="17"/>
       <c r="AK8" s="17"/>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ9" s="17"/>
       <c r="AK9" s="17"/>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ10" s="17"/>
       <c r="AK10" s="17"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ11" s="17"/>
       <c r="AK11" s="17"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ12" s="17"/>
       <c r="AK12" s="17"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ13" s="17"/>
       <c r="AK13" s="17"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ14" s="17"/>
       <c r="AK14" s="17"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ15" s="17"/>
       <c r="AK15" s="17"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AJ16" s="17"/>
       <c r="AK16" s="17"/>
     </row>
-    <row r="17" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ17" s="17"/>
       <c r="AK17" s="17"/>
     </row>
-    <row r="18" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ18" s="17"/>
       <c r="AK18" s="17"/>
     </row>
-    <row r="19" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ19" s="17"/>
       <c r="AK19" s="17"/>
     </row>
-    <row r="20" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ20" s="17"/>
       <c r="AK20" s="17"/>
     </row>
-    <row r="21" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
     </row>
-    <row r="22" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
     </row>
-    <row r="23" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
     </row>
-    <row r="24" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
     </row>
-    <row r="25" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
     </row>
-    <row r="26" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
     </row>
-    <row r="27" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
     </row>
-    <row r="28" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
     </row>
-    <row r="29" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
     </row>
-    <row r="30" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
     </row>
-    <row r="31" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
     </row>
-    <row r="32" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
     </row>
-    <row r="33" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
     </row>
-    <row r="34" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
     </row>
-    <row r="35" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
     </row>
-    <row r="36" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
     </row>
-    <row r="37" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
     </row>
-    <row r="38" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
     </row>
-    <row r="39" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
     </row>
-    <row r="40" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
     </row>
-    <row r="41" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
     </row>
-    <row r="42" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
     </row>
-    <row r="43" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
     </row>
-    <row r="44" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
     </row>
-    <row r="45" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
     </row>
-    <row r="46" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
     </row>
-    <row r="47" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
     </row>
-    <row r="48" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
     </row>
-    <row r="49" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
     </row>
-    <row r="50" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
     </row>
-    <row r="51" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
     </row>
-    <row r="52" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
     </row>
-    <row r="53" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
     </row>
-    <row r="54" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
     </row>
-    <row r="55" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
     </row>
-    <row r="56" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
     </row>
-    <row r="57" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
     </row>
-    <row r="58" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
     </row>
-    <row r="59" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
     </row>
-    <row r="60" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
     </row>
-    <row r="61" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
     </row>
-    <row r="62" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
     </row>
-    <row r="63" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
     </row>
-    <row r="64" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
     </row>
-    <row r="65" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
     </row>
-    <row r="66" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
     </row>
-    <row r="67" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
     </row>
-    <row r="68" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
     </row>
-    <row r="69" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
     </row>
-    <row r="70" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ70" s="17"/>
       <c r="AK70" s="17"/>
     </row>
-    <row r="71" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ71" s="17"/>
       <c r="AK71" s="17"/>
     </row>
-    <row r="72" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ72" s="17"/>
       <c r="AK72" s="17"/>
     </row>
-    <row r="73" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ73" s="17"/>
       <c r="AK73" s="17"/>
     </row>
-    <row r="74" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ74" s="17"/>
       <c r="AK74" s="17"/>
     </row>
-    <row r="75" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ75" s="17"/>
       <c r="AK75" s="17"/>
     </row>
-    <row r="76" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ76" s="17"/>
       <c r="AK76" s="17"/>
     </row>
-    <row r="77" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ77" s="17"/>
       <c r="AK77" s="17"/>
     </row>
-    <row r="78" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ78" s="17"/>
       <c r="AK78" s="17"/>
     </row>
-    <row r="79" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ79" s="17"/>
       <c r="AK79" s="17"/>
     </row>
-    <row r="80" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ80" s="17"/>
       <c r="AK80" s="17"/>
     </row>
-    <row r="81" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ81" s="17"/>
       <c r="AK81" s="17"/>
     </row>
-    <row r="82" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ82" s="17"/>
       <c r="AK82" s="17"/>
     </row>
-    <row r="83" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ83" s="17"/>
       <c r="AK83" s="17"/>
     </row>
-    <row r="84" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ84" s="17"/>
       <c r="AK84" s="17"/>
     </row>
-    <row r="85" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ85" s="17"/>
       <c r="AK85" s="17"/>
     </row>
-    <row r="86" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ86" s="17"/>
       <c r="AK86" s="17"/>
     </row>
-    <row r="87" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ87" s="17"/>
       <c r="AK87" s="17"/>
     </row>
-    <row r="88" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ88" s="17"/>
       <c r="AK88" s="17"/>
     </row>
-    <row r="89" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ89" s="17"/>
       <c r="AK89" s="17"/>
     </row>
-    <row r="90" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ90" s="17"/>
       <c r="AK90" s="17"/>
     </row>
-    <row r="91" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ91" s="17"/>
       <c r="AK91" s="17"/>
     </row>
-    <row r="92" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ92" s="17"/>
       <c r="AK92" s="17"/>
     </row>
-    <row r="93" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ93" s="17"/>
       <c r="AK93" s="17"/>
     </row>
-    <row r="94" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ94" s="17"/>
       <c r="AK94" s="17"/>
     </row>
-    <row r="95" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ95" s="17"/>
       <c r="AK95" s="17"/>
     </row>
-    <row r="96" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ96" s="17"/>
       <c r="AK96" s="17"/>
     </row>
-    <row r="97" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ97" s="17"/>
       <c r="AK97" s="17"/>
     </row>
-    <row r="98" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ98" s="17"/>
       <c r="AK98" s="17"/>
     </row>
-    <row r="99" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ99" s="17"/>
       <c r="AK99" s="17"/>
     </row>
-    <row r="100" spans="36:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="36:37" x14ac:dyDescent="0.25">
       <c r="AJ100" s="17"/>
       <c r="AK100" s="17"/>
     </row>
@@ -2286,6 +2260,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001B10A1146621544CA10AFFB6B345C290" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e9c3904391dfdb572e7cb9fb22afd49">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c" xmlns:ns3="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c9197d42b690c6e28e7629505631f20d" ns2:_="" ns3:_="">
     <xsd:import namespace="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
@@ -2520,27 +2514,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A916EAB6-040B-42FD-BC35-B17D273B5C97}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37D5D59B-9A62-4F83-956D-C544A82E46C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9"/>
+    <ds:schemaRef ds:uri="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADA0474B-9F98-46F2-87E6-5AFDF174CFEC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2557,23 +2550,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37D5D59B-9A62-4F83-956D-C544A82E46C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b7d6f9e3-881f-4519-a9f9-0856d2ed65b9"/>
-    <ds:schemaRef ds:uri="20f740d3-e7cb-4f0f-9e63-8fcc8a32785c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A916EAB6-040B-42FD-BC35-B17D273B5C97}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>